--- a/groups/23-24-Univers/tasks_results/23.12.24.xlsx
+++ b/groups/23-24-Univers/tasks_results/23.12.24.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -94,6 +94,9 @@
     <t>1871</t>
   </si>
   <si>
+    <t>1+, 4-</t>
+  </si>
+  <si>
     <t>3-</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>1876</t>
+  </si>
+  <si>
+    <t>1-</t>
   </si>
 </sst>
 </file>
@@ -549,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -569,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -608,32 +614,38 @@
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
